--- a/Thesis/ModelForSensitivity/layoutSetup_baseCase3/Inputs/TRs/1800-0.8-20-0.xlsx
+++ b/Thesis/ModelForSensitivity/layoutSetup_baseCase3/Inputs/TRs/1800-0.8-20-0.xlsx
@@ -441,178 +441,178 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>320</v>
+        <v>268</v>
       </c>
       <c r="C2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E2">
-        <v>320</v>
+        <v>268</v>
       </c>
       <c r="F2">
-        <v>1925</v>
+        <v>383</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B3">
-        <v>402</v>
+        <v>297</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>402</v>
+        <v>297</v>
       </c>
       <c r="F3">
-        <v>663</v>
+        <v>428</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4">
-        <v>516</v>
+        <v>348</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>516</v>
+        <v>348</v>
       </c>
       <c r="F4">
-        <v>783</v>
+        <v>1953</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>524</v>
+        <v>402</v>
       </c>
       <c r="C5">
         <v>9</v>
       </c>
       <c r="D5">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E5">
-        <v>524</v>
+        <v>402</v>
       </c>
       <c r="F5">
-        <v>789</v>
+        <v>502</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B6">
-        <v>610</v>
+        <v>420</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="D6">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E6">
-        <v>610</v>
+        <v>420</v>
       </c>
       <c r="F6">
-        <v>815</v>
+        <v>1872</v>
       </c>
       <c r="G6" t="s">
         <v>8</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>768</v>
+        <v>556</v>
       </c>
       <c r="C7">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E7">
-        <v>768</v>
+        <v>556</v>
       </c>
       <c r="F7">
-        <v>933</v>
+        <v>695</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>851</v>
+        <v>647</v>
       </c>
       <c r="C8">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E8">
-        <v>851</v>
+        <v>647</v>
       </c>
       <c r="F8">
-        <v>1021</v>
+        <v>738</v>
       </c>
       <c r="G8" t="s">
         <v>9</v>
@@ -623,25 +623,25 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>881</v>
+        <v>684</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="E9">
-        <v>881</v>
+        <v>684</v>
       </c>
       <c r="F9">
-        <v>1055</v>
+        <v>1950</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -649,97 +649,97 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>998</v>
+        <v>740</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E10">
-        <v>998</v>
+        <v>740</v>
       </c>
       <c r="F10">
-        <v>1233</v>
+        <v>890</v>
       </c>
       <c r="G10" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B11">
-        <v>999</v>
+        <v>898</v>
       </c>
       <c r="C11">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E11">
-        <v>999</v>
+        <v>898</v>
       </c>
       <c r="F11">
-        <v>2404</v>
+        <v>995</v>
       </c>
       <c r="G11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="D12">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E12">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="F12">
-        <v>2804</v>
+        <v>1139</v>
       </c>
       <c r="G12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B13">
-        <v>1150</v>
+        <v>1238</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13">
-        <v>1150</v>
+        <v>1238</v>
       </c>
       <c r="F13">
         <v>1316</v>
@@ -748,215 +748,215 @@
         <v>9</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B14">
-        <v>1197</v>
+        <v>1253</v>
       </c>
       <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>33</v>
+      </c>
+      <c r="E14">
+        <v>1253</v>
+      </c>
+      <c r="F14">
+        <v>1394</v>
+      </c>
+      <c r="G14" t="s">
         <v>8</v>
       </c>
-      <c r="D14">
-        <v>31</v>
-      </c>
-      <c r="E14">
-        <v>1197</v>
-      </c>
-      <c r="F14">
-        <v>2402</v>
-      </c>
-      <c r="G14" t="s">
-        <v>11</v>
-      </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B15">
-        <v>1265</v>
+        <v>1322</v>
       </c>
       <c r="C15">
         <v>11</v>
       </c>
       <c r="D15">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="E15">
-        <v>1265</v>
+        <v>1322</v>
       </c>
       <c r="F15">
-        <v>1508</v>
+        <v>1461</v>
       </c>
       <c r="G15" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>1344</v>
+      </c>
+      <c r="C16">
+        <v>34</v>
+      </c>
+      <c r="D16">
+        <v>30</v>
+      </c>
+      <c r="E16">
+        <v>1344</v>
+      </c>
+      <c r="F16">
+        <v>2496</v>
+      </c>
+      <c r="G16" t="s">
         <v>8</v>
       </c>
-      <c r="B16">
-        <v>1327</v>
-      </c>
-      <c r="C16">
-        <v>22</v>
-      </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-      <c r="E16">
-        <v>1327</v>
-      </c>
-      <c r="F16">
-        <v>1612</v>
-      </c>
-      <c r="G16" t="s">
-        <v>11</v>
-      </c>
       <c r="H16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>1408</v>
+      </c>
+      <c r="C17">
         <v>17</v>
       </c>
-      <c r="B17">
-        <v>1514</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
       <c r="D17">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="E17">
-        <v>1514</v>
+        <v>1408</v>
       </c>
       <c r="F17">
-        <v>1672</v>
+        <v>1540</v>
       </c>
       <c r="G17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>1518</v>
+      </c>
+      <c r="C18">
+        <v>31</v>
+      </c>
+      <c r="D18">
+        <v>37</v>
+      </c>
+      <c r="E18">
+        <v>1518</v>
+      </c>
+      <c r="F18">
+        <v>3266</v>
+      </c>
+      <c r="G18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18">
         <v>3</v>
-      </c>
-      <c r="B18">
-        <v>1522</v>
-      </c>
-      <c r="C18">
-        <v>34</v>
-      </c>
-      <c r="D18">
-        <v>18</v>
-      </c>
-      <c r="E18">
-        <v>1522</v>
-      </c>
-      <c r="F18">
-        <v>1693</v>
-      </c>
-      <c r="G18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18">
-        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B19">
-        <v>1701</v>
+        <v>1595</v>
       </c>
       <c r="C19">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D19">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1701</v>
+        <v>1595</v>
       </c>
       <c r="F19">
-        <v>1976</v>
+        <v>1722</v>
       </c>
       <c r="G19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B20">
-        <v>1794</v>
+        <v>1648</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D20">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E20">
-        <v>1794</v>
+        <v>1648</v>
       </c>
       <c r="F20">
-        <v>1971</v>
+        <v>3459</v>
       </c>
       <c r="G20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B21">
-        <v>1798</v>
+        <v>1651</v>
       </c>
       <c r="C21">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D21">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="E21">
-        <v>1798</v>
+        <v>1651</v>
       </c>
       <c r="F21">
-        <v>1959</v>
+        <v>3062</v>
       </c>
       <c r="G21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
